--- a/Total Rewards Job Pricing Tool- KareyW.xlsx
+++ b/Total Rewards Job Pricing Tool- KareyW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fca16039ea603866/Desktop/Comp Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="750" documentId="13_ncr:1_{F886B84B-C727-4BCF-8E4D-B7F8D2CA886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BD8B76F-29E8-432B-97F0-598DDE241AA0}"/>
+  <xr:revisionPtr revIDLastSave="872" documentId="13_ncr:1_{F886B84B-C727-4BCF-8E4D-B7F8D2CA886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0703981-E081-44B7-855D-F1FB9FCDDE88}"/>
   <bookViews>
-    <workbookView xWindow="5470" yWindow="1020" windowWidth="25360" windowHeight="19130" xr2:uid="{4329CD41-E510-405B-A797-BD2139908AC3}"/>
+    <workbookView xWindow="3080" yWindow="4740" windowWidth="25990" windowHeight="14980" xr2:uid="{4329CD41-E510-405B-A797-BD2139908AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp Side by Side " sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FX Calculator'!$B$1:$D$207</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Comp Side by Side '!$B$3:$P$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Comp Side by Side '!$H$3:$V$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'FX Calculator'!$B$1:$E$154</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'FX Calculator'!$1:$6</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="344">
   <si>
     <t>NOTES</t>
   </si>
@@ -1035,13 +1035,60 @@
   </si>
   <si>
     <t>*Please note all figures are in 000's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radford </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower Watson </t>
+  </si>
+  <si>
+    <t>Culpepper</t>
+  </si>
+  <si>
+    <t>Croner</t>
+  </si>
+  <si>
+    <t>Market Data</t>
+  </si>
+  <si>
+    <t>25th P</t>
+  </si>
+  <si>
+    <t>50th P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75th P </t>
+  </si>
+  <si>
+    <t>90th P</t>
+  </si>
+  <si>
+    <t>To automate market data to pop up, client needs to confirm what their market reference point is first (and then determine the spread for pay ranges- ex: 25th P, 50th P, 75th P or 35th P, 65th P, 95th P etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus </t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal 
+Peer Avg </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="11">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
@@ -1051,6 +1098,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1191,7 +1239,7 @@
       <name val="Segoe UI Variable Text Semiligh"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1288,8 +1336,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1786,351 +1840,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="15" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="15" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="10" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="6" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="15" fontId="15" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="15" fillId="10" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="25" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="39" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="42" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="20" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="32" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2143,56 +2021,11 @@
     <xf numFmtId="15" fontId="15" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="11" borderId="44" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="11" borderId="45" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="16" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="16" borderId="32" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="15" fillId="16" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="16" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="170" fontId="9" fillId="8" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2291,114 +2124,6 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2408,66 +2133,6 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2498,10 +2163,613 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="10" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="2" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="6" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="25" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="32" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="39" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="10" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="42" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="20" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="16" borderId="31" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="16" borderId="32" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="16" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="16" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="10" fillId="2" borderId="48" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="10" fillId="2" borderId="54" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="10" fillId="2" borderId="56" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="10" fillId="2" borderId="57" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="5" xr:uid="{460CE245-D3CD-48AA-AFFC-606201E94C8F}"/>
+    <cellStyle name="Currency" xfId="6" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{14EDDCE3-ACF2-410D-AD8F-B3D77B4F8B9B}"/>
     <cellStyle name="Normal 2 3" xfId="2" xr:uid="{B5194584-60CD-4772-872A-6F4EFD243A27}"/>
@@ -2961,1739 +3229,1805 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="B1:AF95"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.453125" style="14" customWidth="1"/>
-    <col min="2" max="6" width="3.7265625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="1.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.26953125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="2" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.26953125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="2" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.26953125" style="14" customWidth="1"/>
-    <col min="14" max="15" width="1.1796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.26953125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="9" customWidth="1"/>
-    <col min="18" max="18" width="20.1796875" style="14" customWidth="1"/>
-    <col min="19" max="28" width="9.1796875" style="1"/>
-    <col min="29" max="16384" width="9.1796875" style="14"/>
+    <col min="1" max="1" width="9.1796875" style="72"/>
+    <col min="2" max="2" width="9.26953125" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="72"/>
+    <col min="4" max="4" width="15.6328125" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="72"/>
+    <col min="7" max="7" width="10.54296875" style="72" customWidth="1"/>
+    <col min="8" max="12" width="3.7265625" style="72" customWidth="1"/>
+    <col min="13" max="13" width="5.54296875" style="72" customWidth="1"/>
+    <col min="14" max="14" width="1.1796875" style="52" customWidth="1"/>
+    <col min="15" max="15" width="25.26953125" style="72" customWidth="1"/>
+    <col min="16" max="16" width="2" style="52" customWidth="1"/>
+    <col min="17" max="17" width="25.26953125" style="72" customWidth="1"/>
+    <col min="18" max="18" width="2" style="52" customWidth="1"/>
+    <col min="19" max="19" width="25.26953125" style="72" customWidth="1"/>
+    <col min="20" max="21" width="1.1796875" style="52" customWidth="1"/>
+    <col min="22" max="22" width="25.26953125" style="72" customWidth="1"/>
+    <col min="23" max="23" width="9" style="53" customWidth="1"/>
+    <col min="24" max="24" width="20.1796875" style="72" customWidth="1"/>
+    <col min="25" max="34" width="9.1796875" style="52"/>
+    <col min="35" max="16384" width="9.1796875" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="2:28" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="Q2"/>
-    </row>
-    <row r="3" spans="2:28" s="1" customFormat="1" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="207" t="s">
+    <row r="1" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W1" s="53"/>
+    </row>
+    <row r="2" spans="1:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W2" s="53"/>
+    </row>
+    <row r="3" spans="1:24" s="52" customFormat="1" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="236" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="238"/>
+      <c r="H3" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="209"/>
-      <c r="Q3"/>
-    </row>
-    <row r="4" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="110"/>
-      <c r="Q4"/>
-      <c r="R4" s="3" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="53"/>
+    </row>
+    <row r="4" spans="1:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="216"/>
+      <c r="B4" s="239" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="240" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="240" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="240" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="241" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="59" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="226"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="4" t="s">
+    <row r="5" spans="1:24" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="90" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="4" t="s">
+      <c r="P5" s="6"/>
+      <c r="Q5" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="4" t="s">
+      <c r="R5" s="6"/>
+      <c r="S5" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="V5" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="Q5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="226"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="24" t="s">
+      <c r="W5" s="53"/>
+      <c r="X5" s="62"/>
+    </row>
+    <row r="6" spans="1:24" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="229"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="24" t="s">
+      <c r="P6" s="64"/>
+      <c r="Q6" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="24" t="s">
+      <c r="R6" s="64"/>
+      <c r="S6" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="32" t="s">
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="Q6"/>
-      <c r="R6" s="5" t="s">
+      <c r="W6" s="53"/>
+      <c r="X6" s="62" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="226"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="6" t="s">
+    <row r="7" spans="1:24" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="90" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="229"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="66" t="s">
         <v>307</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="6" t="s">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="6" t="s">
+      <c r="R7" s="6"/>
+      <c r="S7" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="V7" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="Q7"/>
-      <c r="R7" s="5" t="s">
+      <c r="W7" s="53"/>
+      <c r="X7" s="62" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="226"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="7"/>
-      <c r="P8" s="34"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="2:28" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="201" t="s">
+    <row r="8" spans="1:24" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="90" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="229"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="68"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="53"/>
+    </row>
+    <row r="9" spans="1:24" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="231" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
+      <c r="H9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="122"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="2:28" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="228"/>
-      <c r="C10" s="229"/>
-      <c r="D10" s="229"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="229"/>
-      <c r="G10" s="229"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="38"/>
-      <c r="Q10"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-    </row>
-    <row r="11" spans="2:28" s="8" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="39"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12" t="s">
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="53"/>
+    </row>
+    <row r="10" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="232"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="76"/>
+      <c r="V10" s="77"/>
+    </row>
+    <row r="11" spans="1:24" s="52" customFormat="1" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="232"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="25" t="s">
+      <c r="N11" s="64"/>
+      <c r="O11" s="82" t="s">
         <v>311</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="41"/>
-      <c r="Q11"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="2:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="201" t="s">
+      <c r="P11" s="6"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="62"/>
+    </row>
+    <row r="12" spans="1:24" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="242" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="243"/>
+      <c r="D12" s="244" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="244" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="245" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="P12" s="42"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="2:28" s="9" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="210"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="44"/>
-      <c r="Q13"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-    </row>
-    <row r="14" spans="2:28" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="45"/>
-      <c r="G14" s="8" t="s">
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="4"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="53"/>
+    </row>
+    <row r="13" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="246"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="247"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="87"/>
+      <c r="V13" s="88"/>
+    </row>
+    <row r="14" spans="1:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="248"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="250"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="251"/>
+      <c r="H14" s="89"/>
+      <c r="M14" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="O14" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="Q14" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="46" t="s">
+      <c r="S14" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="47" t="s">
+      <c r="V14" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="Q14"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="2:28" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="212" t="s">
+      <c r="W14" s="53"/>
+      <c r="X14" s="62"/>
+    </row>
+    <row r="15" spans="1:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="230"/>
+      <c r="C15" s="230"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="230"/>
+      <c r="F15" s="230"/>
+      <c r="H15" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="95" t="s">
         <v>326</v>
       </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="112" t="s">
+      <c r="P15" s="96"/>
+      <c r="Q15" s="95" t="s">
         <v>327</v>
       </c>
-      <c r="L15" s="113"/>
-      <c r="M15" s="112" t="s">
+      <c r="R15" s="96"/>
+      <c r="S15" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="114" t="s">
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="98" t="s">
         <v>325</v>
       </c>
-      <c r="Q15"/>
-      <c r="R15" s="5" t="s">
+      <c r="W15" s="53"/>
+      <c r="X15" s="62" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="2:28" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="49"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="2:18" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="214" t="s">
+    <row r="16" spans="1:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="53"/>
+    </row>
+    <row r="17" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="118"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="216"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="50"/>
-      <c r="P18" s="51"/>
-    </row>
-    <row r="19" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="203" t="s">
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="53"/>
+    </row>
+    <row r="18" spans="8:24" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="107"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="109"/>
+      <c r="V18" s="110"/>
+    </row>
+    <row r="19" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="204"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="53">
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="113">
         <v>45677</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="53">
+      <c r="P19" s="90"/>
+      <c r="Q19" s="113">
         <v>45292</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="53">
+      <c r="R19" s="90"/>
+      <c r="S19" s="113">
         <v>44835</v>
       </c>
-      <c r="P19" s="54">
+      <c r="V19" s="114">
         <v>45231</v>
       </c>
-      <c r="Q19"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B20" s="218" t="s">
+      <c r="W19" s="53"/>
+      <c r="X19" s="62"/>
+    </row>
+    <row r="20" spans="8:24" x14ac:dyDescent="0.35">
+      <c r="H20" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="55">
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="115">
         <v>900</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="56">
+      <c r="P20" s="90"/>
+      <c r="Q20" s="116">
         <v>600</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="55">
+      <c r="R20" s="90"/>
+      <c r="S20" s="115">
         <v>850</v>
       </c>
-      <c r="P20" s="57">
+      <c r="V20" s="117">
         <v>850</v>
       </c>
-      <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B21" s="220" t="s">
+      <c r="X20" s="62"/>
+    </row>
+    <row r="21" spans="8:24" x14ac:dyDescent="0.35">
+      <c r="H21" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="15">
-        <f>I20</f>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="120">
+        <f>O20</f>
         <v>900</v>
       </c>
-      <c r="J21" s="58"/>
-      <c r="K21" s="15">
+      <c r="P21" s="121"/>
+      <c r="Q21" s="120">
         <v>795</v>
       </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="15">
-        <f>+M20</f>
+      <c r="R21" s="121"/>
+      <c r="S21" s="120">
+        <f>+S20</f>
         <v>850</v>
       </c>
-      <c r="P21" s="59">
-        <f>+P20</f>
+      <c r="V21" s="122">
+        <f>+V20</f>
         <v>850</v>
       </c>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="52"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="27"/>
-      <c r="P22" s="60"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B23" s="222" t="s">
+      <c r="X21" s="62"/>
+    </row>
+    <row r="22" spans="8:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="123"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="124"/>
+      <c r="V22" s="125"/>
+    </row>
+    <row r="23" spans="8:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="27"/>
-      <c r="P23" s="60"/>
-      <c r="R23" s="16" t="s">
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="124"/>
+      <c r="V23" s="125"/>
+      <c r="X23" s="128" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="224"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="225"/>
-      <c r="E24" s="225"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="61"/>
-      <c r="P24" s="62"/>
-    </row>
-    <row r="25" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="203" t="s">
+    <row r="24" spans="8:24" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="131"/>
+      <c r="V24" s="132"/>
+    </row>
+    <row r="25" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="63">
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="133">
         <v>0.5</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="64">
+      <c r="P25" s="90"/>
+      <c r="Q25" s="134">
         <v>0.66</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="64">
+      <c r="R25" s="90"/>
+      <c r="S25" s="134">
         <v>0.5</v>
       </c>
-      <c r="P25" s="65">
+      <c r="V25" s="135">
         <v>0.5</v>
       </c>
-      <c r="Q25"/>
-      <c r="R25" s="16" t="s">
+      <c r="W25" s="53"/>
+      <c r="X25" s="128" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="203" t="s">
+    <row r="26" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="63">
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="133">
         <v>1</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="64">
+      <c r="P26" s="90"/>
+      <c r="Q26" s="134">
         <v>1</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="64">
+      <c r="R26" s="90"/>
+      <c r="S26" s="134">
         <v>1</v>
       </c>
-      <c r="P26" s="65">
+      <c r="V26" s="135">
         <v>1</v>
       </c>
-      <c r="Q26"/>
-      <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="205" t="s">
+      <c r="W26" s="53"/>
+      <c r="X26" s="62"/>
+    </row>
+    <row r="27" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H27" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="17">
-        <f>IFERROR(I$21*I$25,"")</f>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="138">
+        <f>IFERROR(O$21*O$25,"")</f>
         <v>450</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="17">
-        <f>IFERROR(K$21*K$25,"")</f>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="138">
+        <f>IFERROR(Q$21*Q$25,"")</f>
         <v>524.70000000000005</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="17">
-        <f>IFERROR(M$21*M$25,"")</f>
+      <c r="R27" s="90"/>
+      <c r="S27" s="138">
+        <f>IFERROR(S$21*S$25,"")</f>
         <v>425</v>
       </c>
-      <c r="P27" s="66">
-        <f>IFERROR(P$21*P$25,"")</f>
+      <c r="V27" s="139">
+        <f>IFERROR(V$21*V$25,"")</f>
         <v>425</v>
       </c>
-      <c r="Q27"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="2:18" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="52"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="27"/>
-      <c r="P28" s="60"/>
-    </row>
-    <row r="29" spans="2:18" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="171" t="s">
+      <c r="W27" s="53"/>
+      <c r="X27" s="62"/>
+    </row>
+    <row r="28" spans="8:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="123"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="124"/>
+      <c r="V28" s="125"/>
+    </row>
+    <row r="29" spans="8:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="140" t="s">
         <v>312</v>
       </c>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130">
-        <f>IFERROR(I$27+I$21,"")</f>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="8">
+        <f>IFERROR(O$27+O$21,"")</f>
         <v>1350</v>
       </c>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130">
-        <f>IFERROR(K$27+K$21,"")</f>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8">
+        <f>IFERROR(Q$27+Q$21,"")</f>
         <v>1319.7</v>
       </c>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130">
-        <f>IFERROR(M$27+M$21,"")</f>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8">
+        <f>IFERROR(S$27+S$21,"")</f>
         <v>1275</v>
       </c>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="131">
-        <f>IFERROR(P$27+P$21,"")</f>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="9">
+        <f>IFERROR(V$27+V$21,"")</f>
         <v>1275</v>
       </c>
-      <c r="Q29"/>
-    </row>
-    <row r="30" spans="2:18" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30"/>
-    </row>
-    <row r="31" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="191" t="s">
+      <c r="W29" s="53"/>
+    </row>
+    <row r="30" spans="8:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="53"/>
+    </row>
+    <row r="31" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="192"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="92"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="193"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="104"/>
-      <c r="P32" s="105"/>
-    </row>
-    <row r="33" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="195" t="s">
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="148"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="53"/>
+    </row>
+    <row r="32" spans="8:24" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H32" s="150"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="152"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="152"/>
+      <c r="V32" s="153"/>
+    </row>
+    <row r="33" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="196"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="18">
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="156">
         <v>450</v>
       </c>
-      <c r="J33" s="70"/>
-      <c r="K33" s="19">
+      <c r="P33" s="157"/>
+      <c r="Q33" s="158">
         <v>525</v>
       </c>
-      <c r="L33" s="70"/>
-      <c r="M33" s="18">
+      <c r="R33" s="157"/>
+      <c r="S33" s="156">
         <v>500</v>
       </c>
-      <c r="P33" s="71">
+      <c r="V33" s="159">
         <v>400</v>
       </c>
-      <c r="Q33"/>
-      <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="52"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="27"/>
-      <c r="P34" s="60"/>
-    </row>
-    <row r="35" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="197" t="s">
+      <c r="W33" s="53"/>
+      <c r="X33" s="62"/>
+    </row>
+    <row r="34" spans="8:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="123"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="124"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="124"/>
+      <c r="V34" s="125"/>
+    </row>
+    <row r="35" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="160" t="s">
         <v>281</v>
       </c>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="68"/>
-      <c r="P35" s="69"/>
-      <c r="Q35"/>
-    </row>
-    <row r="36" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="199"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="200"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="72"/>
-      <c r="P36" s="73"/>
-    </row>
-    <row r="37" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="173" t="s">
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="161"/>
+      <c r="L35" s="161"/>
+      <c r="M35" s="161"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="162"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="162"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="162"/>
+      <c r="V35" s="163"/>
+      <c r="W35" s="53"/>
+    </row>
+    <row r="36" spans="8:24" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H36" s="164"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="165"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="166"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="166"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="166"/>
+      <c r="V36" s="167"/>
+    </row>
+    <row r="37" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H37" s="168" t="s">
         <v>296</v>
       </c>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="74">
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="170">
         <v>225</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="74">
+      <c r="P37" s="90"/>
+      <c r="Q37" s="170">
         <v>200</v>
       </c>
-      <c r="L37" s="26"/>
-      <c r="M37" s="74">
+      <c r="R37" s="90"/>
+      <c r="S37" s="170">
         <v>225</v>
       </c>
-      <c r="P37" s="75">
+      <c r="V37" s="171">
         <v>250</v>
       </c>
-      <c r="Q37"/>
-      <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="52"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="27"/>
-      <c r="P38" s="60"/>
-    </row>
-    <row r="39" spans="2:18" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="175" t="s">
+      <c r="W37" s="53"/>
+      <c r="X37" s="62"/>
+    </row>
+    <row r="38" spans="8:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H38" s="123"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="124"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="124"/>
+      <c r="V38" s="125"/>
+    </row>
+    <row r="39" spans="8:24" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H39" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="68"/>
-      <c r="P39" s="69"/>
-      <c r="Q39"/>
-    </row>
-    <row r="40" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="177"/>
-      <c r="C40" s="178"/>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="103"/>
-    </row>
-    <row r="41" spans="2:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="185" t="s">
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="162"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="162"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="162"/>
+      <c r="V39" s="163"/>
+      <c r="W39" s="53"/>
+    </row>
+    <row r="40" spans="8:24" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="174"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="175"/>
+      <c r="M40" s="175"/>
+      <c r="O40" s="176"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="176"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="176"/>
+      <c r="T40" s="178"/>
+      <c r="U40" s="178"/>
+      <c r="V40" s="179"/>
+    </row>
+    <row r="41" spans="8:24" s="52" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="I41" s="78">
-        <f>IFERROR(1575/I21,"")</f>
+      <c r="I41" s="181"/>
+      <c r="J41" s="181"/>
+      <c r="K41" s="181"/>
+      <c r="L41" s="181"/>
+      <c r="M41" s="181"/>
+      <c r="O41" s="182">
+        <f>IFERROR(1575/O21,"")</f>
         <v>1.75</v>
       </c>
-      <c r="J41" s="79"/>
-      <c r="K41" s="78">
-        <f>IFERROR(1575/K21,"")</f>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="182">
+        <f>IFERROR(1575/Q21,"")</f>
         <v>1.9811320754716981</v>
       </c>
-      <c r="L41" s="79"/>
-      <c r="M41" s="78">
-        <f>IFERROR(1575/M21,"")</f>
+      <c r="R41" s="183"/>
+      <c r="S41" s="182">
+        <f>IFERROR(1575/S21,"")</f>
         <v>1.8529411764705883</v>
       </c>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="81">
-        <f>IFERROR(1575/P21,"")</f>
+      <c r="T41" s="184"/>
+      <c r="U41" s="184"/>
+      <c r="V41" s="185">
+        <f>IFERROR(1575/V21,"")</f>
         <v>1.8529411764705883</v>
       </c>
-      <c r="Q41"/>
-    </row>
-    <row r="42" spans="2:18" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="185" t="s">
+      <c r="W41" s="53"/>
+    </row>
+    <row r="42" spans="8:24" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H42" s="180" t="s">
         <v>282</v>
       </c>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="I42" s="82">
-        <f>IFERROR(I41*I21,"")</f>
+      <c r="I42" s="181"/>
+      <c r="J42" s="181"/>
+      <c r="K42" s="181"/>
+      <c r="L42" s="181"/>
+      <c r="M42" s="181"/>
+      <c r="O42" s="186">
+        <f>IFERROR(O41*O21,"")</f>
         <v>1575</v>
       </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="82">
-        <f>K41*K21</f>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="186">
+        <f>Q41*Q21</f>
         <v>1575</v>
       </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="82">
-        <f>M41*M21</f>
+      <c r="R42" s="90"/>
+      <c r="S42" s="186">
+        <f>S41*S21</f>
         <v>1575</v>
       </c>
-      <c r="P42" s="83">
-        <f>P41*P21</f>
+      <c r="V42" s="187">
+        <f>V41*V21</f>
         <v>1575</v>
       </c>
-      <c r="Q42"/>
-    </row>
-    <row r="43" spans="2:18" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="189" t="s">
+      <c r="W42" s="53"/>
+    </row>
+    <row r="43" spans="8:24" s="52" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H43" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="190"/>
-      <c r="I43" s="20">
-        <f>I42*0.54</f>
+      <c r="I43" s="189"/>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
+      <c r="L43" s="189"/>
+      <c r="M43" s="189"/>
+      <c r="O43" s="190">
+        <f>O42*0.54</f>
         <v>850.5</v>
       </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="20">
-        <f>K42*0.54</f>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="190">
+        <f>Q42*0.54</f>
         <v>850.5</v>
       </c>
-      <c r="L43" s="26"/>
-      <c r="M43" s="20">
-        <f>M42*0.54</f>
+      <c r="R43" s="90"/>
+      <c r="S43" s="190">
+        <f>S42*0.54</f>
         <v>850.5</v>
       </c>
-      <c r="P43" s="84">
-        <f>P42*0.54</f>
+      <c r="V43" s="191">
+        <f>V42*0.54</f>
         <v>850.5</v>
       </c>
-      <c r="Q43"/>
-    </row>
-    <row r="44" spans="2:18" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="52"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="27"/>
-      <c r="P44" s="60"/>
-    </row>
-    <row r="45" spans="2:18" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="171" t="s">
+      <c r="W43" s="53"/>
+    </row>
+    <row r="44" spans="8:24" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H44" s="123"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="124"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="124"/>
+      <c r="R44" s="121"/>
+      <c r="S44" s="124"/>
+      <c r="V44" s="125"/>
+    </row>
+    <row r="45" spans="8:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H45" s="140" t="s">
         <v>313</v>
       </c>
-      <c r="C45" s="172"/>
-      <c r="D45" s="172"/>
-      <c r="E45" s="172"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="172"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="130">
-        <f>IFERROR(SUM(I29,I$33,I$37,I43),"")</f>
+      <c r="I45" s="141"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="141"/>
+      <c r="L45" s="141"/>
+      <c r="M45" s="141"/>
+      <c r="N45" s="142"/>
+      <c r="O45" s="8">
+        <f>IFERROR(SUM(O29,O$33,O$37,O43),"")</f>
         <v>2875.5</v>
       </c>
-      <c r="J45" s="130"/>
-      <c r="K45" s="130">
-        <f>IFERROR(SUM(K29,K$33,K$37,K43),"")</f>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8">
+        <f>IFERROR(SUM(Q29,Q$33,Q$37,Q43),"")</f>
         <v>2895.2</v>
       </c>
-      <c r="L45" s="130"/>
-      <c r="M45" s="130">
-        <f>IFERROR(SUM(M29,M$33,M$37,M43),"")</f>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8">
+        <f>IFERROR(SUM(S29,S$33,S$37,S43),"")</f>
         <v>2850.5</v>
       </c>
-      <c r="N45" s="130"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="131">
-        <f>IFERROR(SUM(P29,P$33,P$37,P43),"")</f>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="9">
+        <f>IFERROR(SUM(V29,V$33,V$37,V43),"")</f>
         <v>2775.5</v>
       </c>
-      <c r="Q45"/>
-    </row>
-    <row r="46" spans="2:18" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46"/>
-    </row>
-    <row r="47" spans="2:18" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="187" t="s">
+      <c r="W45" s="53"/>
+    </row>
+    <row r="46" spans="8:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="143"/>
+      <c r="L46" s="143"/>
+      <c r="M46" s="143"/>
+      <c r="N46" s="144"/>
+      <c r="O46" s="145"/>
+      <c r="P46" s="144"/>
+      <c r="Q46" s="145"/>
+      <c r="R46" s="144"/>
+      <c r="S46" s="145"/>
+      <c r="V46" s="145"/>
+      <c r="W46" s="53"/>
+    </row>
+    <row r="47" spans="8:24" s="52" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="188"/>
-      <c r="D47" s="188"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="188"/>
-      <c r="G47" s="188"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="94"/>
-      <c r="Q47"/>
-    </row>
-    <row r="48" spans="2:18" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="183"/>
-      <c r="C48" s="184"/>
-      <c r="D48" s="184"/>
-      <c r="E48" s="184"/>
-      <c r="F48" s="184"/>
-      <c r="G48" s="184"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="106"/>
-      <c r="P48" s="107"/>
-      <c r="Q48"/>
-    </row>
-    <row r="49" spans="2:18" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="52"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="95" t="s">
+      <c r="I47" s="193"/>
+      <c r="J47" s="193"/>
+      <c r="K47" s="193"/>
+      <c r="L47" s="193"/>
+      <c r="M47" s="193"/>
+      <c r="N47" s="194"/>
+      <c r="O47" s="195"/>
+      <c r="P47" s="194"/>
+      <c r="Q47" s="195"/>
+      <c r="R47" s="194"/>
+      <c r="S47" s="195"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="196"/>
+      <c r="W47" s="53"/>
+    </row>
+    <row r="48" spans="8:24" s="52" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H48" s="197"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="198"/>
+      <c r="K48" s="198"/>
+      <c r="L48" s="198"/>
+      <c r="M48" s="198"/>
+      <c r="N48" s="144"/>
+      <c r="O48" s="199"/>
+      <c r="P48" s="144"/>
+      <c r="Q48" s="199"/>
+      <c r="R48" s="144"/>
+      <c r="S48" s="199"/>
+      <c r="V48" s="200"/>
+      <c r="W48" s="53"/>
+    </row>
+    <row r="49" spans="8:24" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H49" s="123"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="23">
+      <c r="O49" s="202">
         <v>64.599999999999994</v>
       </c>
-      <c r="J49" s="26"/>
-      <c r="K49" s="96">
+      <c r="P49" s="90"/>
+      <c r="Q49" s="203">
         <v>19.7</v>
       </c>
-      <c r="L49" s="26"/>
-      <c r="M49" s="97">
+      <c r="R49" s="90"/>
+      <c r="S49" s="204">
         <v>20</v>
       </c>
-      <c r="P49" s="98">
+      <c r="V49" s="205">
         <v>8.4</v>
       </c>
-      <c r="Q49"/>
-      <c r="R49" s="5" t="s">
+      <c r="W49" s="53"/>
+      <c r="X49" s="62" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="2:18" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="52"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="95" t="s">
+    <row r="50" spans="8:24" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H50" s="123"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="97" t="s">
+      <c r="O50" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="J50" s="26"/>
-      <c r="K50" s="97" t="s">
+      <c r="P50" s="90"/>
+      <c r="Q50" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="L50" s="26"/>
-      <c r="M50" s="97" t="s">
+      <c r="R50" s="90"/>
+      <c r="S50" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="98" t="s">
+      <c r="V50" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="Q50"/>
-      <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="2:18" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="52"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="95" t="s">
+      <c r="W50" s="53"/>
+      <c r="X50" s="62"/>
+    </row>
+    <row r="51" spans="8:24" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H51" s="123"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="97" t="s">
+      <c r="O51" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="26"/>
-      <c r="K51" s="97" t="s">
+      <c r="P51" s="90"/>
+      <c r="Q51" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="L51" s="26"/>
-      <c r="M51" s="97" t="s">
+      <c r="R51" s="90"/>
+      <c r="S51" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="P51" s="99" t="s">
+      <c r="V51" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="Q51"/>
-      <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="2:18" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="52"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="95" t="s">
+      <c r="W51" s="53"/>
+      <c r="X51" s="62"/>
+    </row>
+    <row r="52" spans="8:24" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H52" s="123"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="97" t="s">
+      <c r="O52" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="26"/>
-      <c r="K52" s="97" t="s">
+      <c r="P52" s="90"/>
+      <c r="Q52" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="26"/>
-      <c r="M52" s="97" t="s">
+      <c r="R52" s="90"/>
+      <c r="S52" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="P52" s="99" t="s">
+      <c r="V52" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="Q52"/>
-      <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="2:18" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="52"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="95" t="s">
+      <c r="W52" s="53"/>
+      <c r="X52" s="62"/>
+    </row>
+    <row r="53" spans="8:24" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H53" s="123"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="97" t="s">
+      <c r="O53" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="J53" s="26"/>
-      <c r="K53" s="97" t="s">
+      <c r="P53" s="90"/>
+      <c r="Q53" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="L53" s="26"/>
-      <c r="M53" s="97" t="s">
+      <c r="R53" s="90"/>
+      <c r="S53" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="P53" s="99" t="s">
+      <c r="V53" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="Q53"/>
-      <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="2:18" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="100"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="101" t="s">
+      <c r="W53" s="53"/>
+      <c r="X53" s="62"/>
+    </row>
+    <row r="54" spans="8:24" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H54" s="207"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="97" t="s">
+      <c r="O54" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="J54" s="26"/>
-      <c r="K54" s="96">
+      <c r="P54" s="90"/>
+      <c r="Q54" s="203">
         <v>2.1</v>
       </c>
-      <c r="L54" s="26"/>
-      <c r="M54" s="97" t="s">
+      <c r="R54" s="90"/>
+      <c r="S54" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="P54" s="98" t="s">
+      <c r="V54" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="Q54"/>
-      <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="2:18" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="52"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="101" t="s">
+      <c r="W54" s="53"/>
+      <c r="X54" s="62"/>
+    </row>
+    <row r="55" spans="8:24" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H55" s="123"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="97" t="s">
+      <c r="O55" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="J55" s="26"/>
-      <c r="K55" s="97" t="s">
+      <c r="P55" s="90"/>
+      <c r="Q55" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="L55" s="26"/>
-      <c r="M55" s="96">
+      <c r="R55" s="90"/>
+      <c r="S55" s="203">
         <v>2.9</v>
       </c>
-      <c r="P55" s="98" t="s">
+      <c r="V55" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="Q55"/>
-      <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="2:18" s="1" customFormat="1" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="127"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="132" t="s">
+      <c r="W55" s="53"/>
+      <c r="X55" s="62"/>
+    </row>
+    <row r="56" spans="8:24" s="52" customFormat="1" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H56" s="209"/>
+      <c r="I56" s="210"/>
+      <c r="J56" s="210"/>
+      <c r="K56" s="210"/>
+      <c r="L56" s="210"/>
+      <c r="M56" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="123"/>
-      <c r="I56" s="133">
-        <f>IFERROR(SUM(I49:I55),"")</f>
+      <c r="N56" s="212"/>
+      <c r="O56" s="213">
+        <f>IFERROR(SUM(O49:O55),"")</f>
         <v>64.599999999999994</v>
       </c>
-      <c r="J56" s="128"/>
-      <c r="K56" s="133">
-        <f>IFERROR(SUM(K49:K55),"")</f>
+      <c r="P56" s="210"/>
+      <c r="Q56" s="213">
+        <f>IFERROR(SUM(Q49:Q55),"")</f>
         <v>21.8</v>
       </c>
-      <c r="L56" s="128"/>
-      <c r="M56" s="133">
-        <f>IFERROR(SUM(M49:M55),"")</f>
+      <c r="R56" s="210"/>
+      <c r="S56" s="213">
+        <f>IFERROR(SUM(S49:S55),"")</f>
         <v>22.9</v>
       </c>
-      <c r="N56" s="134"/>
-      <c r="O56" s="134"/>
-      <c r="P56" s="135">
-        <f>IFERROR(SUM(P49:P55),"")</f>
+      <c r="T56" s="214"/>
+      <c r="U56" s="214"/>
+      <c r="V56" s="215">
+        <f>IFERROR(SUM(V49:V55),"")</f>
         <v>8.4</v>
       </c>
-      <c r="Q56"/>
-      <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="2:18" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57"/>
-    </row>
-    <row r="58" spans="2:18" s="1" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="179" t="s">
+      <c r="W56" s="53"/>
+      <c r="X56" s="62"/>
+    </row>
+    <row r="57" spans="8:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H57" s="143"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="143"/>
+      <c r="K57" s="143"/>
+      <c r="L57" s="143"/>
+      <c r="M57" s="143"/>
+      <c r="N57" s="216"/>
+      <c r="O57" s="145"/>
+      <c r="P57" s="145"/>
+      <c r="Q57" s="145"/>
+      <c r="R57" s="145"/>
+      <c r="S57" s="145"/>
+      <c r="V57" s="145"/>
+      <c r="W57" s="53"/>
+    </row>
+    <row r="58" spans="8:24" s="52" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H58" s="217" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="180"/>
-      <c r="D58" s="180"/>
-      <c r="E58" s="180"/>
-      <c r="F58" s="180"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="93"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="94"/>
-      <c r="Q58"/>
-    </row>
-    <row r="59" spans="2:18" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="181"/>
-      <c r="C59" s="182"/>
-      <c r="D59" s="182"/>
-      <c r="E59" s="182"/>
-      <c r="F59" s="182"/>
-      <c r="G59" s="182"/>
-      <c r="I59" s="124"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="124"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="124"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="125"/>
-      <c r="Q59"/>
-    </row>
-    <row r="60" spans="2:18" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="52"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="G60" s="95" t="s">
+      <c r="I58" s="218"/>
+      <c r="J58" s="218"/>
+      <c r="K58" s="218"/>
+      <c r="L58" s="218"/>
+      <c r="M58" s="218"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="195"/>
+      <c r="P58" s="105"/>
+      <c r="Q58" s="195"/>
+      <c r="R58" s="105"/>
+      <c r="S58" s="195"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="196"/>
+      <c r="W58" s="53"/>
+    </row>
+    <row r="59" spans="8:24" s="52" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H59" s="219"/>
+      <c r="I59" s="220"/>
+      <c r="J59" s="220"/>
+      <c r="K59" s="220"/>
+      <c r="L59" s="220"/>
+      <c r="M59" s="220"/>
+      <c r="O59" s="221"/>
+      <c r="P59" s="90"/>
+      <c r="Q59" s="221"/>
+      <c r="R59" s="90"/>
+      <c r="S59" s="221"/>
+      <c r="V59" s="222"/>
+      <c r="W59" s="53"/>
+    </row>
+    <row r="60" spans="8:24" s="52" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H60" s="123"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="M60" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="I60" s="23">
+      <c r="O60" s="202">
         <f>100%*22.5</f>
         <v>22.5</v>
       </c>
-      <c r="J60" s="26"/>
-      <c r="K60" s="23">
+      <c r="P60" s="90"/>
+      <c r="Q60" s="202">
         <f>100%*22.5</f>
         <v>22.5</v>
       </c>
-      <c r="L60" s="26"/>
-      <c r="M60" s="23">
+      <c r="R60" s="90"/>
+      <c r="S60" s="202">
         <f>100%*22.5</f>
         <v>22.5</v>
       </c>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="126">
+      <c r="V60" s="223">
         <f>100%*22.5</f>
         <v>22.5</v>
       </c>
-      <c r="Q60"/>
-      <c r="R60" s="5" t="s">
+      <c r="W60" s="53"/>
+      <c r="X60" s="62" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="2:18" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="52"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="G61" s="95" t="s">
+    <row r="61" spans="8:24" s="52" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H61" s="123"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="M61" s="201" t="s">
         <v>315</v>
       </c>
-      <c r="I61" s="23">
-        <f>IFERROR((I21/365)*30,"")</f>
+      <c r="O61" s="202">
+        <f>IFERROR((O21/365)*30,"")</f>
         <v>73.972602739726028</v>
       </c>
-      <c r="J61" s="26"/>
-      <c r="K61" s="23">
-        <f>IFERROR((K21/365)*30,"")</f>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="202">
+        <f>IFERROR((Q21/365)*30,"")</f>
         <v>65.342465753424648</v>
       </c>
-      <c r="L61" s="26"/>
-      <c r="M61" s="23">
-        <f>IFERROR((M21/365)*30,"")</f>
+      <c r="R61" s="90"/>
+      <c r="S61" s="202">
+        <f>IFERROR((S21/365)*30,"")</f>
         <v>69.863013698630141</v>
       </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="126">
-        <f>IFERROR((P21/365)*30,"")</f>
+      <c r="V61" s="223">
+        <f>IFERROR((V21/365)*30,"")</f>
         <v>69.863013698630141</v>
       </c>
-      <c r="Q61"/>
-      <c r="R61" s="5" t="s">
+      <c r="W61" s="53"/>
+      <c r="X61" s="62" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="62" spans="2:18" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="52"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="G62" s="95" t="s">
+    <row r="62" spans="8:24" s="52" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H62" s="123"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="M62" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="23">
+      <c r="O62" s="202">
         <v>67</v>
       </c>
-      <c r="J62" s="26"/>
-      <c r="K62" s="23">
+      <c r="P62" s="90"/>
+      <c r="Q62" s="202">
         <v>13</v>
       </c>
-      <c r="L62" s="26"/>
-      <c r="M62" s="23">
+      <c r="R62" s="90"/>
+      <c r="S62" s="202">
         <v>0</v>
       </c>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="126">
+      <c r="V62" s="223">
         <v>0</v>
       </c>
-      <c r="Q62"/>
-      <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="2:18" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="52"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="G63" s="95" t="s">
+      <c r="W62" s="53"/>
+      <c r="X62" s="62"/>
+    </row>
+    <row r="63" spans="8:24" s="52" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H63" s="123"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="M63" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="I63" s="23">
+      <c r="O63" s="202">
         <v>0</v>
       </c>
-      <c r="J63" s="26"/>
-      <c r="K63" s="23">
+      <c r="P63" s="90"/>
+      <c r="Q63" s="202">
         <f>(35149*1.325)/1000</f>
         <v>46.572424999999996</v>
       </c>
-      <c r="L63" s="26"/>
-      <c r="M63" s="23">
+      <c r="R63" s="90"/>
+      <c r="S63" s="202">
         <v>0</v>
       </c>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="126">
+      <c r="V63" s="223">
         <v>0</v>
       </c>
-      <c r="Q63"/>
-      <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="2:18" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="52"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="G64" s="95" t="s">
+      <c r="W63" s="53"/>
+      <c r="X63" s="62"/>
+    </row>
+    <row r="64" spans="8:24" s="52" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H64" s="123"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="M64" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="I64" s="23">
+      <c r="O64" s="202">
         <v>45</v>
       </c>
-      <c r="J64" s="26"/>
-      <c r="K64" s="23">
+      <c r="P64" s="90"/>
+      <c r="Q64" s="202">
         <v>0</v>
       </c>
-      <c r="L64" s="26"/>
-      <c r="M64" s="23">
+      <c r="R64" s="90"/>
+      <c r="S64" s="202">
         <v>0</v>
       </c>
-      <c r="P64" s="126">
+      <c r="V64" s="223">
         <v>0</v>
       </c>
-      <c r="Q64"/>
-      <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="2:32" s="1" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="52"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="G65" s="95" t="s">
+      <c r="W64" s="53"/>
+      <c r="X64" s="62"/>
+    </row>
+    <row r="65" spans="8:24" s="52" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H65" s="123"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="M65" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="I65" s="23">
+      <c r="O65" s="202">
         <v>0</v>
       </c>
-      <c r="J65" s="26"/>
-      <c r="K65" s="23">
+      <c r="P65" s="90"/>
+      <c r="Q65" s="202">
         <v>0</v>
       </c>
-      <c r="L65" s="26"/>
-      <c r="M65" s="23">
+      <c r="R65" s="90"/>
+      <c r="S65" s="202">
         <v>0</v>
       </c>
-      <c r="O65" s="8"/>
-      <c r="P65" s="126">
+      <c r="V65" s="223">
         <v>75</v>
       </c>
-      <c r="Q65"/>
-      <c r="R65" s="5" t="s">
+      <c r="W65" s="53"/>
+      <c r="X65" s="62" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="66" spans="2:32" s="1" customFormat="1" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="137"/>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="136"/>
-      <c r="F66" s="138"/>
-      <c r="G66" s="136" t="s">
+    <row r="66" spans="8:24" s="52" customFormat="1" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H66" s="224"/>
+      <c r="I66" s="225"/>
+      <c r="J66" s="225"/>
+      <c r="K66" s="225"/>
+      <c r="L66" s="226"/>
+      <c r="M66" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="138"/>
-      <c r="I66" s="139">
-        <f>SUM(I60:I65)</f>
+      <c r="N66" s="226"/>
+      <c r="O66" s="227">
+        <f>SUM(O60:O65)</f>
         <v>208.47260273972603</v>
       </c>
-      <c r="J66" s="136"/>
-      <c r="K66" s="139">
-        <f>SUM(K60:K65)</f>
+      <c r="P66" s="225"/>
+      <c r="Q66" s="227">
+        <f>SUM(Q60:Q65)</f>
         <v>147.41489075342463</v>
       </c>
-      <c r="L66" s="136"/>
-      <c r="M66" s="139">
-        <f>SUM(M60:M65)</f>
+      <c r="R66" s="225"/>
+      <c r="S66" s="227">
+        <f>SUM(S60:S65)</f>
         <v>92.363013698630141</v>
       </c>
-      <c r="N66" s="138"/>
-      <c r="O66" s="140"/>
-      <c r="P66" s="141">
-        <f>SUM(P60:P65)</f>
+      <c r="T66" s="226"/>
+      <c r="U66" s="226"/>
+      <c r="V66" s="228">
+        <f>SUM(V60:V65)</f>
         <v>167.36301369863014</v>
       </c>
-      <c r="Q66"/>
-      <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="2:32" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B67" s="171" t="s">
+      <c r="W66" s="53"/>
+      <c r="X66" s="62"/>
+    </row>
+    <row r="67" spans="8:24" s="52" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H67" s="140" t="s">
         <v>319</v>
       </c>
-      <c r="C67" s="172"/>
-      <c r="D67" s="172"/>
-      <c r="E67" s="172"/>
-      <c r="F67" s="172"/>
-      <c r="G67" s="172" t="s">
+      <c r="I67" s="141"/>
+      <c r="J67" s="141"/>
+      <c r="K67" s="141"/>
+      <c r="L67" s="141"/>
+      <c r="M67" s="141" t="s">
         <v>319</v>
       </c>
-      <c r="H67" s="129"/>
-      <c r="I67" s="130">
-        <f>IFERROR(SUM(I66+I56+I45),"")</f>
+      <c r="N67" s="142"/>
+      <c r="O67" s="8">
+        <f>IFERROR(SUM(O66+O56+O45),"")</f>
         <v>3148.5726027397259</v>
       </c>
-      <c r="J67" s="130"/>
-      <c r="K67" s="130">
-        <f>IFERROR(SUM(K66+K56+K45),"")</f>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8">
+        <f>IFERROR(SUM(Q66+Q56+Q45),"")</f>
         <v>3064.4148907534245</v>
       </c>
-      <c r="L67" s="130"/>
-      <c r="M67" s="130">
-        <f>IFERROR(SUM(M66+M56+M45),"")</f>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8">
+        <f>IFERROR(SUM(S66+S56+S45),"")</f>
         <v>2965.7630136986299</v>
       </c>
-      <c r="N67" s="130"/>
-      <c r="O67" s="130"/>
-      <c r="P67" s="130">
-        <f>IFERROR(SUM(P66+P56+P45),"")</f>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="9">
+        <f>IFERROR(SUM(V66+V56+V45),"")</f>
         <v>2951.2630136986299</v>
       </c>
-      <c r="Q67"/>
-    </row>
-    <row r="68" spans="2:32" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="170" t="s">
+      <c r="W67" s="53"/>
+    </row>
+    <row r="68" spans="8:24" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H68" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
-      <c r="E68" s="170"/>
-      <c r="F68" s="170"/>
-      <c r="G68" s="170"/>
-      <c r="H68" s="170"/>
-      <c r="I68" s="170"/>
-      <c r="J68" s="170"/>
-      <c r="K68" s="170"/>
-      <c r="L68" s="170"/>
-      <c r="M68" s="170"/>
-      <c r="N68" s="170"/>
-      <c r="O68" s="170"/>
-      <c r="P68" s="170"/>
-      <c r="Q68"/>
-    </row>
-    <row r="69" spans="2:32" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="2"/>
-      <c r="Q69"/>
-    </row>
-    <row r="70" spans="2:32" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="2"/>
-      <c r="Q70"/>
-    </row>
-    <row r="71" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="Q71"/>
-    </row>
-    <row r="72" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q72"/>
-    </row>
-    <row r="73" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q73"/>
-    </row>
-    <row r="74" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q74"/>
-    </row>
-    <row r="75" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q75"/>
-    </row>
-    <row r="76" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q76"/>
-      <c r="AD76" s="8"/>
-      <c r="AE76" s="8"/>
-      <c r="AF76" s="8"/>
-    </row>
-    <row r="77" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q77"/>
-    </row>
-    <row r="78" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q78"/>
-    </row>
-    <row r="79" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q79"/>
-    </row>
-    <row r="80" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q80"/>
-    </row>
-    <row r="81" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q81"/>
-    </row>
-    <row r="82" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q82"/>
-    </row>
-    <row r="83" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q83"/>
-    </row>
-    <row r="84" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q84"/>
-    </row>
-    <row r="85" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q85"/>
-    </row>
-    <row r="86" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q86"/>
-    </row>
-    <row r="87" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q87"/>
-    </row>
-    <row r="88" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q88"/>
-    </row>
-    <row r="89" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q89"/>
-    </row>
-    <row r="90" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q90"/>
-    </row>
-    <row r="91" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q91"/>
-    </row>
-    <row r="92" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q92"/>
-    </row>
-    <row r="93" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q93"/>
-    </row>
-    <row r="94" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q94"/>
-    </row>
-    <row r="95" spans="17:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="Q95"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="53"/>
+    </row>
+    <row r="69" spans="8:24" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H69" s="216"/>
+      <c r="I69" s="216"/>
+      <c r="J69" s="216"/>
+      <c r="K69" s="216"/>
+      <c r="L69" s="216"/>
+      <c r="M69" s="216"/>
+      <c r="N69" s="216"/>
+      <c r="O69" s="216"/>
+      <c r="P69" s="216"/>
+      <c r="Q69" s="216"/>
+      <c r="R69" s="216"/>
+      <c r="S69" s="216"/>
+      <c r="V69" s="216"/>
+      <c r="W69" s="53"/>
+    </row>
+    <row r="70" spans="8:24" s="52" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H70" s="216"/>
+      <c r="I70" s="216"/>
+      <c r="J70" s="216"/>
+      <c r="K70" s="216"/>
+      <c r="L70" s="216"/>
+      <c r="M70" s="216"/>
+      <c r="N70" s="216"/>
+      <c r="O70" s="216"/>
+      <c r="P70" s="216"/>
+      <c r="Q70" s="216"/>
+      <c r="R70" s="216"/>
+      <c r="S70" s="216"/>
+      <c r="V70" s="216"/>
+      <c r="W70" s="53"/>
+    </row>
+    <row r="71" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="W71" s="53"/>
+    </row>
+    <row r="72" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W72" s="53"/>
+    </row>
+    <row r="73" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W73" s="53"/>
+    </row>
+    <row r="74" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W74" s="53"/>
+    </row>
+    <row r="75" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W75" s="53"/>
+    </row>
+    <row r="76" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W76" s="53"/>
+    </row>
+    <row r="77" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W77" s="53"/>
+    </row>
+    <row r="78" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W78" s="53"/>
+    </row>
+    <row r="79" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W79" s="53"/>
+    </row>
+    <row r="80" spans="8:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W80" s="53"/>
+    </row>
+    <row r="81" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W81" s="53"/>
+    </row>
+    <row r="82" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W82" s="53"/>
+    </row>
+    <row r="83" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W83" s="53"/>
+    </row>
+    <row r="84" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W84" s="53"/>
+    </row>
+    <row r="85" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W85" s="53"/>
+    </row>
+    <row r="86" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W86" s="53"/>
+    </row>
+    <row r="87" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W87" s="53"/>
+    </row>
+    <row r="88" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W88" s="53"/>
+    </row>
+    <row r="89" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W89" s="53"/>
+    </row>
+    <row r="90" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W90" s="53"/>
+    </row>
+    <row r="91" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W91" s="53"/>
+    </row>
+    <row r="92" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W92" s="53"/>
+    </row>
+    <row r="93" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W93" s="53"/>
+    </row>
+    <row r="94" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W94" s="53"/>
+    </row>
+    <row r="95" spans="23:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="W95" s="53"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7ruKs9/qzIMZMxzHvEL0apQPeZVlM4NVcBQCJb0/WtzL6cQ6GwGgr9rG3mb0fZ0j3o7mwPhls6pMrT5L/99h2g==" saltValue="OMFY9MhowFFwSw7s6Cvdjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0"/>
-  <mergeCells count="36">
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B5:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B68:P68"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fMvI+jCOHKAtOhL5SzLMGl8ZAm5MSVjundyHvOmciOhGeOCi1OqUmImKAd5ViiXTdgNzMpYrBspPW5WsivU6IA==" saltValue="gPxLdZQZXofCBWKvVc0Ukw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0"/>
+  <mergeCells count="42">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:F11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="H3:V3"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H5:M8"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H68:V68"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H67:M67"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="H58:M58"/>
+    <mergeCell ref="H59:M59"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4709,1816 +5043,1816 @@
   </sheetPr>
   <dimension ref="B1:L204"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.453125" style="152" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" style="152" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" style="152" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="151" customWidth="1"/>
-    <col min="6" max="7" width="9.1796875" style="152"/>
-    <col min="8" max="8" width="22.36328125" style="152" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" style="152" customWidth="1"/>
-    <col min="10" max="10" width="22.26953125" style="152" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="152"/>
-    <col min="12" max="12" width="60.453125" style="152" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="152"/>
+    <col min="1" max="1" width="45.453125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="19" customWidth="1"/>
+    <col min="6" max="7" width="9.1796875" style="20"/>
+    <col min="8" max="8" width="22.36328125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="22.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="20"/>
+    <col min="12" max="12" width="60.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="236"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="238"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="C4" s="153"/>
-      <c r="D4" s="154" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="154"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="D6" s="153">
+      <c r="D6" s="21">
         <v>2024</v>
       </c>
-      <c r="E6" s="153">
+      <c r="E6" s="21">
         <v>2025</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="156" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="F7" s="153"/>
-      <c r="H7" s="158" t="s">
+      <c r="F7" s="21"/>
+      <c r="H7" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="I7" s="158" t="s">
+      <c r="I7" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="142">
+      <c r="D8" s="10">
         <v>1.3</v>
       </c>
-      <c r="E8" s="143">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="230" t="s">
+      <c r="H8" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="I8" s="232" t="s">
+      <c r="I8" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="J8" s="160" t="s">
+      <c r="J8" s="28" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="161" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="29" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="159" t="s">
+      <c r="C10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
-      <c r="H10" s="144" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="H10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="145">
+      <c r="I10" s="13">
         <v>32711</v>
       </c>
-      <c r="J10" s="162">
+      <c r="J10" s="30">
         <f>IFERROR(I10/(INDEX($E$8:$E$154,MATCH(H10,$B$8:$B$112,0))),"-")</f>
         <v>32711</v>
       </c>
-      <c r="L10" s="163" t="s">
+      <c r="L10" s="31" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="164"/>
-      <c r="L11" s="165" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="32"/>
+      <c r="L11" s="33" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="143"/>
-      <c r="H12" s="230" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="H12" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="I12" s="232" t="s">
+      <c r="I12" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="J12" s="160" t="s">
+      <c r="J12" s="28" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="159" t="s">
+      <c r="B13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="161" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="29" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="143"/>
-      <c r="H14" s="144" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="H14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="145"/>
-      <c r="J14" s="162">
+      <c r="I14" s="13"/>
+      <c r="J14" s="30">
         <f>IFERROR(I14/(INDEX($E$8:$E$154,MATCH(H14,$C$8:$C$154,0))),"-")</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="159" t="s">
+      <c r="B15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="159" t="s">
+      <c r="C16" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="143"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="159" t="s">
+      <c r="B17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="159" t="s">
+      <c r="C17" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="159" t="s">
+      <c r="B18" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="159" t="s">
+      <c r="C18" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="159" t="s">
+      <c r="B19" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="159" t="s">
+      <c r="C19" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="143"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="159" t="s">
+      <c r="B20" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="159" t="s">
+      <c r="C20" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="159" t="s">
+      <c r="C21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="143"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="159" t="s">
+      <c r="B23" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="159" t="s">
+      <c r="C23" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="159" t="s">
+      <c r="B24" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="159" t="s">
+      <c r="C24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="142"/>
-      <c r="E24" s="143"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="159" t="s">
+      <c r="C25" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="142"/>
-      <c r="E25" s="143"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="159" t="s">
+      <c r="C26" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="159" t="s">
+      <c r="B27" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="159" t="s">
+      <c r="C27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="142"/>
-      <c r="E27" s="143"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="159" t="s">
+      <c r="B28" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="159" t="s">
+      <c r="C28" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="142"/>
-      <c r="E28" s="143"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="159" t="s">
+      <c r="B29" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="159" t="s">
+      <c r="C29" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="142"/>
-      <c r="E29" s="143"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="159" t="s">
+      <c r="B30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="159" t="s">
+      <c r="C30" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="142"/>
-      <c r="E30" s="143"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="159" t="s">
+      <c r="B31" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="143"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="159" t="s">
+      <c r="B32" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="159" t="s">
+      <c r="C32" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="143"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="159" t="s">
+      <c r="B33" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="159" t="s">
+      <c r="C33" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="143"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="159" t="s">
+      <c r="B34" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="159" t="s">
+      <c r="C34" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="142"/>
-      <c r="E34" s="143"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="152" t="s">
+      <c r="B35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="152" t="s">
+      <c r="C35" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="146"/>
-      <c r="E35" s="147"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C36" s="166"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="166"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="159" t="s">
+      <c r="B37" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="167" t="s">
+      <c r="C37" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="142"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="153"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="153"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="153"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="21"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="156" t="s">
+      <c r="B39" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="157"/>
-      <c r="D39" s="168" t="s">
+      <c r="C39" s="25"/>
+      <c r="D39" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="E39" s="168" t="s">
+      <c r="E39" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="F39" s="153"/>
+      <c r="F39" s="21"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="159" t="s">
+      <c r="B40" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="159" t="s">
+      <c r="C40" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="143"/>
-      <c r="G40" s="169"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="159" t="s">
+      <c r="B41" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="159" t="s">
+      <c r="C41" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="142"/>
-      <c r="E41" s="143"/>
-      <c r="G41" s="169"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="G41" s="37"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="159" t="s">
+      <c r="B42" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="159" t="s">
+      <c r="C42" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="142"/>
-      <c r="E42" s="143"/>
-      <c r="G42" s="169"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="G42" s="37"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="159" t="s">
+      <c r="B43" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="159" t="s">
+      <c r="C43" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="142"/>
-      <c r="E43" s="143"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="159" t="s">
+      <c r="B44" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="159" t="s">
+      <c r="C44" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="142"/>
-      <c r="E44" s="143"/>
-      <c r="G44" s="169"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="G44" s="37"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="159" t="s">
+      <c r="B45" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="159" t="s">
+      <c r="C45" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="142"/>
-      <c r="E45" s="143"/>
-      <c r="G45" s="169"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="G45" s="37"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="159" t="s">
+      <c r="B46" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="159" t="s">
+      <c r="C46" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="142"/>
-      <c r="E46" s="143"/>
-      <c r="G46" s="169"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="G46" s="37"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="159" t="s">
+      <c r="B47" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="159" t="s">
+      <c r="C47" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="142"/>
-      <c r="E47" s="143"/>
-      <c r="G47" s="169"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="G47" s="37"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="159" t="s">
+      <c r="B48" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="159" t="s">
+      <c r="C48" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="142"/>
-      <c r="E48" s="143"/>
-      <c r="G48" s="169"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="G48" s="37"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="159" t="s">
+      <c r="B49" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="159" t="s">
+      <c r="C49" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="142"/>
-      <c r="E49" s="143"/>
-      <c r="G49" s="169"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="G49" s="37"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="159" t="s">
+      <c r="B50" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="159" t="s">
+      <c r="C50" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="142"/>
-      <c r="E50" s="143"/>
-      <c r="G50" s="169"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="G50" s="37"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="159" t="s">
+      <c r="B51" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="159" t="s">
+      <c r="C51" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="142"/>
-      <c r="E51" s="143"/>
-      <c r="G51" s="169"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="G51" s="37"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="159" t="s">
+      <c r="B52" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="159" t="s">
+      <c r="C52" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="142"/>
-      <c r="E52" s="143"/>
-      <c r="G52" s="169"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="G52" s="37"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="159" t="s">
+      <c r="B53" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="159" t="s">
+      <c r="C53" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="142"/>
-      <c r="E53" s="143"/>
-      <c r="G53" s="169"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="G53" s="37"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="159" t="s">
+      <c r="B54" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="159" t="s">
+      <c r="C54" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="142"/>
-      <c r="E54" s="143"/>
-      <c r="G54" s="169"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="159" t="s">
+      <c r="B55" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="159" t="s">
+      <c r="C55" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="142"/>
-      <c r="E55" s="143"/>
-      <c r="G55" s="169"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="G55" s="37"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B56" s="159" t="s">
+      <c r="B56" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="159" t="s">
+      <c r="C56" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="142"/>
-      <c r="E56" s="143"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="159" t="s">
+      <c r="B57" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="159" t="s">
+      <c r="C57" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="142"/>
-      <c r="E57" s="143"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="159" t="s">
+      <c r="B58" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="159" t="s">
+      <c r="C58" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="142"/>
-      <c r="E58" s="143"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D59" s="148"/>
-      <c r="E59" s="148"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="156" t="s">
+      <c r="B60" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="157"/>
-      <c r="D60" s="168" t="s">
+      <c r="C60" s="25"/>
+      <c r="D60" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="E60" s="168" t="s">
+      <c r="E60" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="F60" s="153"/>
+      <c r="F60" s="21"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="159" t="s">
+      <c r="B61" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="159" t="s">
+      <c r="C61" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="142"/>
-      <c r="E61" s="143"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="159" t="s">
+      <c r="B62" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C62" s="159" t="s">
+      <c r="C62" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D62" s="142"/>
-      <c r="E62" s="143"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="159" t="s">
+      <c r="B63" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="159" t="s">
+      <c r="C63" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D63" s="142"/>
-      <c r="E63" s="143"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="159" t="s">
+      <c r="B64" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="159" t="s">
+      <c r="C64" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="142"/>
-      <c r="E64" s="143"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="159" t="s">
+      <c r="B65" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="159" t="s">
+      <c r="C65" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="142"/>
-      <c r="E65" s="143"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="159" t="s">
+      <c r="B66" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="159" t="s">
+      <c r="C66" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D66" s="142"/>
-      <c r="E66" s="143"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="159" t="s">
+      <c r="B67" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="159" t="s">
+      <c r="C67" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="142"/>
-      <c r="E67" s="143"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="159" t="s">
+      <c r="B68" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="159" t="s">
+      <c r="C68" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="142"/>
-      <c r="E68" s="143"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="159" t="s">
+      <c r="B69" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="159" t="s">
+      <c r="C69" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D69" s="142"/>
-      <c r="E69" s="143"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B70" s="159" t="s">
+      <c r="B70" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="159" t="s">
+      <c r="C70" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D70" s="142"/>
-      <c r="E70" s="143"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B71" s="159" t="s">
+      <c r="B71" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="159" t="s">
+      <c r="C71" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D71" s="142"/>
-      <c r="E71" s="143"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B72" s="159" t="s">
+      <c r="B72" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="159" t="s">
+      <c r="C72" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="142"/>
-      <c r="E72" s="143"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B73" s="159" t="s">
+      <c r="B73" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="159" t="s">
+      <c r="C73" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="142"/>
-      <c r="E73" s="143"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="159" t="s">
+      <c r="B74" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="159" t="s">
+      <c r="C74" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="142"/>
-      <c r="E74" s="143"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B75" s="159" t="s">
+      <c r="B75" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="159" t="s">
+      <c r="C75" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="142"/>
-      <c r="E75" s="143"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B76" s="159" t="s">
+      <c r="B76" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="159" t="s">
+      <c r="C76" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D76" s="142"/>
-      <c r="E76" s="143"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="159" t="s">
+      <c r="B77" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="159" t="s">
+      <c r="C77" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="142"/>
-      <c r="E77" s="143"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B78" s="159" t="s">
+      <c r="B78" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="159" t="s">
+      <c r="C78" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D78" s="142"/>
-      <c r="E78" s="143"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B79" s="159" t="s">
+      <c r="B79" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="159" t="s">
+      <c r="C79" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="142"/>
-      <c r="E79" s="143"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B80" s="159" t="s">
+      <c r="B80" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="159" t="s">
+      <c r="C80" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="142"/>
-      <c r="E80" s="143"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="159" t="s">
+      <c r="B81" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="159" t="s">
+      <c r="C81" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D81" s="142"/>
-      <c r="E81" s="143"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D82" s="148"/>
-      <c r="E82" s="148"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B83" s="156" t="s">
+      <c r="B83" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="157"/>
-      <c r="D83" s="168" t="s">
+      <c r="C83" s="25"/>
+      <c r="D83" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="E83" s="168" t="s">
+      <c r="E83" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="F83" s="153"/>
+      <c r="F83" s="21"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B84" s="159" t="s">
+      <c r="B84" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="159" t="s">
+      <c r="C84" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D84" s="142"/>
-      <c r="E84" s="143"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B85" s="159" t="s">
+      <c r="B85" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="159" t="s">
+      <c r="C85" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D85" s="142"/>
-      <c r="E85" s="143"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="152" t="s">
+      <c r="B86" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="152" t="s">
+      <c r="C86" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="D86" s="148"/>
-      <c r="E86" s="147"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="15"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B87" s="159" t="s">
+      <c r="B87" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="159" t="s">
+      <c r="C87" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="142"/>
-      <c r="E87" s="143"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B88" s="159" t="s">
+      <c r="B88" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C88" s="159" t="s">
+      <c r="C88" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="142"/>
-      <c r="E88" s="143"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B89" s="159" t="s">
+      <c r="B89" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="159" t="s">
+      <c r="C89" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D89" s="142"/>
-      <c r="E89" s="143"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" s="159" t="s">
+      <c r="B90" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="159" t="s">
+      <c r="C90" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D90" s="142"/>
-      <c r="E90" s="143"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B91" s="159" t="s">
+      <c r="B91" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C91" s="159" t="s">
+      <c r="C91" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="D91" s="142"/>
-      <c r="E91" s="143"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" s="159" t="s">
+      <c r="B92" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="159" t="s">
+      <c r="C92" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D92" s="142"/>
-      <c r="E92" s="143"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B93" s="159" t="s">
+      <c r="B93" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C93" s="159" t="s">
+      <c r="C93" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="D93" s="142"/>
-      <c r="E93" s="143"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B94" s="159" t="s">
+      <c r="B94" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C94" s="159" t="s">
+      <c r="C94" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D94" s="142"/>
-      <c r="E94" s="143"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B95" s="159" t="s">
+      <c r="B95" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C95" s="159" t="s">
+      <c r="C95" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D95" s="142"/>
-      <c r="E95" s="143"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B96" s="159" t="s">
+      <c r="B96" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C96" s="159" t="s">
+      <c r="C96" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D96" s="142"/>
-      <c r="E96" s="143"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="159" t="s">
+      <c r="B97" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C97" s="159" t="s">
+      <c r="C97" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D97" s="142"/>
-      <c r="E97" s="143"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="159" t="s">
+      <c r="B98" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C98" s="159" t="s">
+      <c r="C98" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D98" s="142"/>
-      <c r="E98" s="143"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B99" s="159" t="s">
+      <c r="B99" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C99" s="159" t="s">
+      <c r="C99" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="D99" s="142"/>
-      <c r="E99" s="143"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B100" s="159" t="s">
+      <c r="B100" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C100" s="159" t="s">
+      <c r="C100" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D100" s="142"/>
-      <c r="E100" s="143"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B101" s="159" t="s">
+      <c r="B101" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C101" s="159" t="s">
+      <c r="C101" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D101" s="142"/>
-      <c r="E101" s="143"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B102" s="159" t="s">
+      <c r="B102" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="C102" s="159" t="s">
+      <c r="C102" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D102" s="142"/>
-      <c r="E102" s="143"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B103" s="159" t="s">
+      <c r="B103" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="C103" s="159" t="s">
+      <c r="C103" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D103" s="142"/>
-      <c r="E103" s="143"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B104" s="159" t="s">
+      <c r="B104" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C104" s="159" t="s">
+      <c r="C104" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D104" s="142"/>
-      <c r="E104" s="143"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B105" s="159" t="s">
+      <c r="B105" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C105" s="159" t="s">
+      <c r="C105" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D105" s="142"/>
-      <c r="E105" s="143"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B106" s="159" t="s">
+      <c r="B106" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="C106" s="159" t="s">
+      <c r="C106" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D106" s="142"/>
-      <c r="E106" s="143"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B107" s="159" t="s">
+      <c r="B107" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C107" s="159" t="s">
+      <c r="C107" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D107" s="142"/>
-      <c r="E107" s="143"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B108" s="159" t="s">
+      <c r="B108" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C108" s="159" t="s">
+      <c r="C108" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D108" s="142"/>
-      <c r="E108" s="143"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B109" s="159" t="s">
+      <c r="B109" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C109" s="159" t="s">
+      <c r="C109" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D109" s="142"/>
-      <c r="E109" s="143"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B110" s="159" t="s">
+      <c r="B110" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C110" s="159" t="s">
+      <c r="C110" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D110" s="142"/>
-      <c r="E110" s="143"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="152" t="s">
+      <c r="B111" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C111" s="152" t="s">
+      <c r="C111" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D111" s="146"/>
-      <c r="E111" s="147"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C112" s="153"/>
-      <c r="D112" s="148"/>
-      <c r="E112" s="148"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B113" s="156" t="s">
+      <c r="B113" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C113" s="157"/>
-      <c r="D113" s="168" t="s">
+      <c r="C113" s="25"/>
+      <c r="D113" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="E113" s="168" t="s">
+      <c r="E113" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="F113" s="153"/>
+      <c r="F113" s="21"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B114" s="159" t="s">
+      <c r="B114" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C114" s="159" t="s">
+      <c r="C114" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D114" s="142"/>
-      <c r="E114" s="143"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B115" s="159" t="s">
+      <c r="B115" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="C115" s="159" t="s">
+      <c r="C115" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="D115" s="142"/>
-      <c r="E115" s="143"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B116" s="159" t="s">
+      <c r="B116" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C116" s="159" t="s">
+      <c r="C116" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D116" s="142"/>
-      <c r="E116" s="143"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B117" s="159" t="s">
+      <c r="B117" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="C117" s="159" t="s">
+      <c r="C117" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D117" s="142"/>
-      <c r="E117" s="143"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B118" s="159" t="s">
+      <c r="B118" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="159" t="s">
+      <c r="C118" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D118" s="142"/>
-      <c r="E118" s="143"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="11"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B119" s="159" t="s">
+      <c r="B119" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="C119" s="159" t="s">
+      <c r="C119" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D119" s="142"/>
-      <c r="E119" s="143"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B120" s="159" t="s">
+      <c r="B120" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="C120" s="159" t="s">
+      <c r="C120" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D120" s="142"/>
-      <c r="E120" s="143"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B121" s="159" t="s">
+      <c r="B121" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C121" s="159" t="s">
+      <c r="C121" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D121" s="142"/>
-      <c r="E121" s="143"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11"/>
     </row>
     <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="159" t="s">
+      <c r="B122" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C122" s="159" t="s">
+      <c r="C122" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D122" s="142"/>
-      <c r="E122" s="143"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="11"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B123" s="159" t="s">
+      <c r="B123" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="C123" s="159" t="s">
+      <c r="C123" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="D123" s="142"/>
-      <c r="E123" s="143"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="11"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B124" s="159" t="s">
+      <c r="B124" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="C124" s="159" t="s">
+      <c r="C124" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D124" s="142"/>
-      <c r="E124" s="143"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B125" s="159" t="s">
+      <c r="B125" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C125" s="159" t="s">
+      <c r="C125" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D125" s="142"/>
-      <c r="E125" s="143"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="11"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B126" s="159" t="s">
+      <c r="B126" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="C126" s="159" t="s">
+      <c r="C126" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="D126" s="142"/>
-      <c r="E126" s="143"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="11"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C127" s="153"/>
-      <c r="D127" s="148"/>
-      <c r="E127" s="148"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B128" s="156" t="s">
+      <c r="B128" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C128" s="157"/>
-      <c r="D128" s="168" t="s">
+      <c r="C128" s="25"/>
+      <c r="D128" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="E128" s="168" t="s">
+      <c r="E128" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="F128" s="153"/>
+      <c r="F128" s="21"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B129" s="159" t="s">
+      <c r="B129" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="C129" s="159" t="s">
+      <c r="C129" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D129" s="142"/>
-      <c r="E129" s="143"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B130" s="159" t="s">
+      <c r="B130" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="C130" s="159" t="s">
+      <c r="C130" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D130" s="142"/>
-      <c r="E130" s="143"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="11"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B131" s="159" t="s">
+      <c r="B131" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="C131" s="159" t="s">
+      <c r="C131" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D131" s="142"/>
-      <c r="E131" s="143"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B132" s="159" t="s">
+      <c r="B132" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="C132" s="159" t="s">
+      <c r="C132" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D132" s="142"/>
-      <c r="E132" s="143"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="11"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B133" s="159" t="s">
+      <c r="B133" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="C133" s="159" t="s">
+      <c r="C133" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D133" s="142"/>
-      <c r="E133" s="143"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="11"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B134" s="159" t="s">
+      <c r="B134" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="C134" s="159" t="s">
+      <c r="C134" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="D134" s="142"/>
-      <c r="E134" s="143"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="11"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B135" s="159" t="s">
+      <c r="B135" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="C135" s="159" t="s">
+      <c r="C135" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D135" s="142"/>
-      <c r="E135" s="143"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="11"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B136" s="159" t="s">
+      <c r="B136" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="C136" s="159" t="s">
+      <c r="C136" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D136" s="142"/>
-      <c r="E136" s="143"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="11"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B137" s="159" t="s">
+      <c r="B137" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="C137" s="159" t="s">
+      <c r="C137" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="D137" s="142"/>
-      <c r="E137" s="143"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B138" s="159" t="s">
+      <c r="B138" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C138" s="159" t="s">
+      <c r="C138" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D138" s="142"/>
-      <c r="E138" s="143"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="11"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B139" s="159" t="s">
+      <c r="B139" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="C139" s="159" t="s">
+      <c r="C139" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D139" s="142"/>
-      <c r="E139" s="143"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="11"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B140" s="159" t="s">
+      <c r="B140" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C140" s="159" t="s">
+      <c r="C140" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D140" s="142"/>
-      <c r="E140" s="143"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="11"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B141" s="159" t="s">
+      <c r="B141" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="C141" s="159" t="s">
+      <c r="C141" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D141" s="142"/>
-      <c r="E141" s="143"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="11"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B142" s="159" t="s">
+      <c r="B142" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="C142" s="159" t="s">
+      <c r="C142" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D142" s="142"/>
-      <c r="E142" s="143"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="11"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B143" s="159" t="s">
+      <c r="B143" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="C143" s="159" t="s">
+      <c r="C143" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="D143" s="142"/>
-      <c r="E143" s="143"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="11"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B144" s="159" t="s">
+      <c r="B144" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="C144" s="159" t="s">
+      <c r="C144" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="D144" s="142"/>
-      <c r="E144" s="143"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="11"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B145" s="159" t="s">
+      <c r="B145" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="159" t="s">
+      <c r="C145" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D145" s="142"/>
-      <c r="E145" s="143"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="11"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B146" s="159" t="s">
+      <c r="B146" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="C146" s="159" t="s">
+      <c r="C146" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D146" s="142"/>
-      <c r="E146" s="143"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="11"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B147" s="159" t="s">
+      <c r="B147" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="C147" s="159" t="s">
+      <c r="C147" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D147" s="142"/>
-      <c r="E147" s="143"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="11"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B148" s="159" t="s">
+      <c r="B148" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C148" s="159" t="s">
+      <c r="C148" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="D148" s="142"/>
-      <c r="E148" s="143"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="11"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B149" s="159" t="s">
+      <c r="B149" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="C149" s="159" t="s">
+      <c r="C149" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="D149" s="142"/>
-      <c r="E149" s="143"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="11"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B150" s="159" t="s">
+      <c r="B150" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="C150" s="159" t="s">
+      <c r="C150" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D150" s="142"/>
-      <c r="E150" s="143"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="11"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B151" s="159" t="s">
+      <c r="B151" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="C151" s="159" t="s">
+      <c r="C151" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="D151" s="142"/>
-      <c r="E151" s="143"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="11"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B152" s="159" t="s">
+      <c r="B152" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="C152" s="159" t="s">
+      <c r="C152" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D152" s="142"/>
-      <c r="E152" s="143"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="11"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B153" s="159" t="s">
+      <c r="B153" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="C153" s="159" t="s">
+      <c r="C153" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D153" s="142"/>
-      <c r="E153" s="143"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="11"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B154" s="159" t="s">
+      <c r="B154" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="C154" s="159" t="s">
+      <c r="C154" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D154" s="142"/>
-      <c r="E154" s="143"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="11"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D155" s="149"/>
-      <c r="E155" s="149"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D156" s="149"/>
-      <c r="E156" s="149"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D157" s="149"/>
-      <c r="E157" s="149"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D158" s="149"/>
-      <c r="E158" s="149"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D159" s="149"/>
-      <c r="E159" s="149"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D160" s="149"/>
-      <c r="E160" s="149"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
     </row>
     <row r="161" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D161" s="149"/>
-      <c r="E161" s="149"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
     </row>
     <row r="162" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D162" s="149"/>
-      <c r="E162" s="149"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
     </row>
     <row r="163" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D163" s="149"/>
-      <c r="E163" s="149"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D164" s="149"/>
-      <c r="E164" s="149"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
     </row>
     <row r="165" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D165" s="149"/>
-      <c r="E165" s="149"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D166" s="150"/>
-      <c r="E166" s="150"/>
+      <c r="D166" s="18"/>
+      <c r="E166" s="18"/>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D167" s="150"/>
-      <c r="E167" s="150"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D168" s="150"/>
-      <c r="E168" s="150"/>
+      <c r="D168" s="18"/>
+      <c r="E168" s="18"/>
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D169" s="150"/>
-      <c r="E169" s="150"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="18"/>
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D170" s="150"/>
-      <c r="E170" s="150"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18"/>
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D171" s="150"/>
-      <c r="E171" s="150"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D172" s="150"/>
-      <c r="E172" s="150"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
     </row>
     <row r="173" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D173" s="150"/>
-      <c r="E173" s="150"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
     </row>
     <row r="174" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D174" s="150"/>
-      <c r="E174" s="150"/>
+      <c r="D174" s="18"/>
+      <c r="E174" s="18"/>
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D175" s="150"/>
-      <c r="E175" s="150"/>
+      <c r="D175" s="18"/>
+      <c r="E175" s="18"/>
     </row>
     <row r="176" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D176" s="150"/>
-      <c r="E176" s="150"/>
+      <c r="D176" s="18"/>
+      <c r="E176" s="18"/>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D177" s="150"/>
-      <c r="E177" s="150"/>
+      <c r="D177" s="18"/>
+      <c r="E177" s="18"/>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D178" s="150"/>
-      <c r="E178" s="150"/>
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D179" s="150"/>
-      <c r="E179" s="150"/>
+      <c r="D179" s="18"/>
+      <c r="E179" s="18"/>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D180" s="150"/>
-      <c r="E180" s="150"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D181" s="150"/>
-      <c r="E181" s="150"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D182" s="150"/>
-      <c r="E182" s="150"/>
+      <c r="D182" s="18"/>
+      <c r="E182" s="18"/>
     </row>
     <row r="183" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D183" s="150"/>
-      <c r="E183" s="150"/>
+      <c r="D183" s="18"/>
+      <c r="E183" s="18"/>
     </row>
     <row r="184" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D184" s="150"/>
-      <c r="E184" s="150"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
     </row>
     <row r="185" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D185" s="150"/>
-      <c r="E185" s="150"/>
+      <c r="D185" s="18"/>
+      <c r="E185" s="18"/>
     </row>
     <row r="186" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D186" s="150"/>
-      <c r="E186" s="150"/>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
     </row>
     <row r="187" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D187" s="150"/>
-      <c r="E187" s="150"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
     </row>
     <row r="188" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D188" s="150"/>
-      <c r="E188" s="150"/>
+      <c r="D188" s="18"/>
+      <c r="E188" s="18"/>
     </row>
     <row r="189" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D189" s="150"/>
-      <c r="E189" s="150"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
     </row>
     <row r="190" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D190" s="150"/>
-      <c r="E190" s="150"/>
+      <c r="D190" s="18"/>
+      <c r="E190" s="18"/>
     </row>
     <row r="191" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D191" s="150"/>
-      <c r="E191" s="150"/>
+      <c r="D191" s="18"/>
+      <c r="E191" s="18"/>
     </row>
     <row r="192" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D192" s="150"/>
-      <c r="E192" s="150"/>
+      <c r="D192" s="18"/>
+      <c r="E192" s="18"/>
     </row>
     <row r="193" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D193" s="150"/>
-      <c r="E193" s="150"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D194" s="150"/>
-      <c r="E194" s="150"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="18"/>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D195" s="150"/>
-      <c r="E195" s="150"/>
+      <c r="D195" s="18"/>
+      <c r="E195" s="18"/>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D196" s="150"/>
-      <c r="E196" s="150"/>
+      <c r="D196" s="18"/>
+      <c r="E196" s="18"/>
     </row>
     <row r="197" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D197" s="150"/>
-      <c r="E197" s="150"/>
+      <c r="D197" s="18"/>
+      <c r="E197" s="18"/>
     </row>
     <row r="198" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D198" s="150"/>
-      <c r="E198" s="150"/>
+      <c r="D198" s="18"/>
+      <c r="E198" s="18"/>
     </row>
     <row r="199" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D199" s="150"/>
-      <c r="E199" s="150"/>
+      <c r="D199" s="18"/>
+      <c r="E199" s="18"/>
     </row>
     <row r="200" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D200" s="150"/>
-      <c r="E200" s="150"/>
+      <c r="D200" s="18"/>
+      <c r="E200" s="18"/>
     </row>
     <row r="201" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D201" s="150"/>
-      <c r="E201" s="150"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
     </row>
     <row r="202" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D202" s="150"/>
-      <c r="E202" s="150"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="18"/>
     </row>
     <row r="203" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D203" s="150"/>
-      <c r="E203" s="150"/>
+      <c r="D203" s="18"/>
+      <c r="E203" s="18"/>
     </row>
     <row r="204" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D204" s="150"/>
-      <c r="E204" s="150"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="V75Svw8bRB5w2n+r0d9S7tx1CnIpfQ7NwAP/6SO3PEtqGTQayIhHCPncovcEo9QgSkcUjXhCCVu8IG/pJu+a5A==" saltValue="L9KUFmrIEzMiv6HE2OWq2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" selectLockedCells="1"/>
@@ -6551,8 +6885,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG46" sqref="AG45:AG46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6564,6 +6898,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FCEC7219923544488976FBF5A95465A3" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c39d4a6cb2a35c4c64779dc51034f920">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="99b40148-0e38-4808-ba92-79b34fca5f52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="647589e30a4f664736c3f7d9f1ce46f8" ns3:_="">
     <xsd:import namespace="99b40148-0e38-4808-ba92-79b34fca5f52"/>
@@ -6721,22 +7064,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B79F42DC-4614-4C68-AE78-EB57B8EFCDC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B52B976D-2267-419C-98AB-3F171DF82D59}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6754,7 +7096,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEDC0DFA-4167-40D2-9898-163478A19401}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6768,12 +7110,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B79F42DC-4614-4C68-AE78-EB57B8EFCDC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>